--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.cqdg.ca/CodeSystem/qc-ethnicity</t>
+    <t>https://fhir.cqdg.ca/CodeSystem/qc-ethnicity</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-27T14:10:57-04:00</t>
+    <t>2023-04-28T18:08:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T18:08:06+00:00</t>
+    <t>2023-05-01T14:10:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T14:10:01+00:00</t>
+    <t>2023-05-01T15:10:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T15:10:49+00:00</t>
+    <t>2023-05-08T15:26:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-08T15:26:10+00:00</t>
+    <t>2023-05-11T13:00:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-11T13:00:33+00:00</t>
+    <t>2023-05-11T21:57:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-11T21:57:42+00:00</t>
+    <t>2023-05-12T12:33:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-12T12:33:13+00:00</t>
+    <t>2023-08-01T16:12:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -314,10 +314,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-01T16:12:28+00:00</t>
+    <t>2023-10-16T18:33:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-16T18:33:36+00:00</t>
+    <t>2023-11-09T20:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-09T20:06:51+00:00</t>
+    <t>2023-11-15T18:25:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T18:25:48+00:00</t>
+    <t>2023-11-15T19:01:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T19:01:06+00:00</t>
+    <t>2023-12-04T14:59:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T14:59:45+00:00</t>
+    <t>2023-12-07T15:05:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-07T15:05:41+00:00</t>
+    <t>2024-01-17T15:25:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T15:25:58+00:00</t>
+    <t>2024-01-17T16:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T16:00:29+00:00</t>
+    <t>2024-01-17T16:27:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T16:27:10+00:00</t>
+    <t>2024-01-17T16:37:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T16:37:11+00:00</t>
+    <t>2024-10-02T15:04:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Ferlab.bio (http://example.org/example-publisher)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -326,7 +332,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -428,66 +434,74 @@
       <c r="A12" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>25</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" t="s" s="2">
+        <v>27</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B19" t="s" s="2">
         <v>31</v>
       </c>
+      <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" t="s" s="2">
+        <v>33</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s" s="2">
         <v>34</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -505,168 +519,168 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T15:04:17+00:00</t>
+    <t>2024-12-18T18:27:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T18:27:33+00:00</t>
+    <t>2025-05-13T18:56:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-13T18:56:15+00:00</t>
+    <t>2025-05-20T15:08:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T15:08:54+00:00</t>
+    <t>2025-05-21T20:08:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T20:08:08+00:00</t>
+    <t>2025-05-27T17:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-27T17:50:40+00:00</t>
+    <t>2025-05-27T17:52:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-27T17:52:17+00:00</t>
+    <t>2025-05-29T13:27:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T13:27:52+00:00</t>
+    <t>2025-06-12T13:19:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-12T13:19:08+00:00</t>
+    <t>2025-06-12T13:42:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-12T13:42:51+00:00</t>
+    <t>2025-08-13T14:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T14:50:19+00:00</t>
+    <t>2025-08-20T13:12:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T13:12:16+00:00</t>
+    <t>2025-08-29T12:39:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T12:39:24+00:00</t>
+    <t>2025-09-03T17:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T17:56:07+00:00</t>
+    <t>2025-09-05T17:42:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T17:42:32+00:00</t>
+    <t>2025-09-12T13:34:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T13:34:32+00:00</t>
+    <t>2025-09-16T14:36:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T14:36:01+00:00</t>
+    <t>2025-09-18T19:56:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T19:56:42+00:00</t>
+    <t>2025-09-18T20:45:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T20:45:23+00:00</t>
+    <t>2025-09-22T20:20:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>QCEthnicity</t>
+    <t>QCEthnicityCodeSystem</t>
   </si>
   <si>
     <t>Title</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T20:20:13+00:00</t>
+    <t>2025-09-23T20:31:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -150,22 +150,22 @@
     <t>English Canadian</t>
   </si>
   <si>
-    <t>First Nations, Metis and Inuit people</t>
+    <t>First Nation, Inuit, Metis</t>
   </si>
   <si>
     <t>Person who are descendants of the natives or the indigenous peoples of the Americas</t>
   </si>
   <si>
-    <t>European Caucasian</t>
+    <t>European</t>
   </si>
   <si>
     <t>Anyone from or whose ancestors originate from the European continent (excluding French Canadians).</t>
   </si>
   <si>
-    <t>Arabe</t>
-  </si>
-  <si>
-    <t>Hispanic and Latino Americans</t>
+    <t>Arab</t>
+  </si>
+  <si>
+    <t>Latin American</t>
   </si>
   <si>
     <t>Canadian or Quebecois who are descendants of people from Latin America</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:31:36+00:00</t>
+    <t>2025-09-23T20:38:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:38:56+00:00</t>
+    <t>2026-01-20T16:06:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-qc-ethnicity.xlsx
+++ b/docs/CodeSystem-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T16:06:26+00:00</t>
+    <t>2026-01-22T16:34:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
